--- a/Employee_Reports35/Jahsim Saycon Apila Q0431.xlsx
+++ b/Employee_Reports35/Jahsim Saycon Apila Q0431.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,7 +470,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="4" customWidth="1" min="1" max="1"/>
-    <col width="55" customWidth="1" min="2" max="2"/>
+    <col width="73" customWidth="1" min="2" max="2"/>
     <col width="19" customWidth="1" min="3" max="3"/>
     <col width="18" customWidth="1" min="4" max="4"/>
     <col width="18" customWidth="1" min="5" max="5"/>
@@ -581,11 +581,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -630,11 +630,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -679,11 +679,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -728,11 +728,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -777,11 +777,11 @@
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
@@ -826,11 +826,11 @@
         </is>
       </c>
       <c r="H8" s="3" t="n">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
@@ -875,11 +875,11 @@
         </is>
       </c>
       <c r="H9" s="3" t="n">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="I9" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J9" s="3" t="inlineStr">
@@ -924,11 +924,11 @@
         </is>
       </c>
       <c r="H10" s="3" t="n">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="I10" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J10" s="3" t="inlineStr">
@@ -973,11 +973,11 @@
         </is>
       </c>
       <c r="H11" s="3" t="n">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="I11" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J11" s="3" t="inlineStr">
@@ -1022,11 +1022,11 @@
         </is>
       </c>
       <c r="H12" s="3" t="n">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="I12" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J12" s="3" t="inlineStr">
@@ -1071,11 +1071,11 @@
         </is>
       </c>
       <c r="H13" s="3" t="n">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="I13" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J13" s="3" t="inlineStr">
@@ -1120,11 +1120,11 @@
         </is>
       </c>
       <c r="H14" s="3" t="n">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I14" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J14" s="3" t="inlineStr">
@@ -1169,11 +1169,11 @@
         </is>
       </c>
       <c r="H15" s="3" t="n">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="I15" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J15" s="3" t="inlineStr">
@@ -1218,11 +1218,11 @@
         </is>
       </c>
       <c r="H16" s="3" t="n">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="I16" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J16" s="3" t="inlineStr">
@@ -1267,11 +1267,11 @@
         </is>
       </c>
       <c r="H17" s="3" t="n">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="I17" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J17" s="3" t="inlineStr">
@@ -1316,11 +1316,11 @@
         </is>
       </c>
       <c r="H18" s="3" t="n">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="I18" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J18" s="3" t="inlineStr">
@@ -1365,11 +1365,11 @@
         </is>
       </c>
       <c r="H19" s="3" t="n">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="I19" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J19" s="3" t="inlineStr">
@@ -1414,11 +1414,11 @@
         </is>
       </c>
       <c r="H20" s="3" t="n">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="I20" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J20" s="3" t="inlineStr">
@@ -1463,11 +1463,11 @@
         </is>
       </c>
       <c r="H21" s="4" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I21" s="4" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J21" s="4" t="inlineStr">
@@ -1513,11 +1513,11 @@
         </is>
       </c>
       <c r="H22" s="3" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I22" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J22" s="3" t="inlineStr">
@@ -1528,41 +1528,41 @@
       <c r="K22" s="3" t="inlineStr"/>
     </row>
     <row r="23">
-      <c r="A23" s="3" t="n">
+      <c r="A23" s="5" t="n">
         <v>21</v>
       </c>
-      <c r="B23" s="3" t="inlineStr">
-        <is>
-          <t>Procedure For Handling New or Unfamilliar Task (SOPs)</t>
-        </is>
-      </c>
-      <c r="C23" s="3" t="inlineStr"/>
-      <c r="D23" s="3" t="inlineStr"/>
-      <c r="E23" s="3" t="inlineStr"/>
-      <c r="F23" s="3" t="inlineStr">
-        <is>
-          <t>17-Mar-2025</t>
-        </is>
-      </c>
-      <c r="G23" s="3" t="inlineStr">
-        <is>
-          <t>17-Mar-2026</t>
-        </is>
-      </c>
-      <c r="H23" s="3" t="n">
-        <v>134</v>
-      </c>
-      <c r="I23" s="3" t="inlineStr">
-        <is>
-          <t>02-Nov-2025</t>
-        </is>
-      </c>
-      <c r="J23" s="3" t="inlineStr">
-        <is>
-          <t>VALID</t>
-        </is>
-      </c>
-      <c r="K23" s="3" t="inlineStr"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Endangered by Electricity A safety Training (SOPs)</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr"/>
+      <c r="D23" s="5" t="inlineStr"/>
+      <c r="E23" s="5" t="inlineStr"/>
+      <c r="F23" s="5" t="inlineStr">
+        <is>
+          <t>24-Jul-2024</t>
+        </is>
+      </c>
+      <c r="G23" s="5" t="inlineStr">
+        <is>
+          <t>24-Jul-2025</t>
+        </is>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>-103</v>
+      </c>
+      <c r="I23" s="5" t="inlineStr">
+        <is>
+          <t>03-Nov-2025</t>
+        </is>
+      </c>
+      <c r="J23" s="5" t="inlineStr">
+        <is>
+          <t>NOT VALID</t>
+        </is>
+      </c>
+      <c r="K23" s="5" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="3" t="n">
@@ -1570,28 +1570,40 @@
       </c>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>SOP for  Powered Roller Deck And ULD Aisle (SOPs)</t>
-        </is>
-      </c>
-      <c r="C24" s="3" t="inlineStr"/>
-      <c r="D24" s="3" t="inlineStr"/>
-      <c r="E24" s="3" t="inlineStr"/>
+          <t>Incident Escalation Process(LSME-IMS-SOP-021 ) (SOPs)</t>
+        </is>
+      </c>
+      <c r="C24" s="3" t="inlineStr">
+        <is>
+          <t>IMS</t>
+        </is>
+      </c>
+      <c r="D24" s="3" t="inlineStr">
+        <is>
+          <t>LSME-IMS-SOP-021</t>
+        </is>
+      </c>
+      <c r="E24" s="3" t="inlineStr">
+        <is>
+          <t>SOP</t>
+        </is>
+      </c>
       <c r="F24" s="3" t="inlineStr">
         <is>
-          <t>18-Oct-2025</t>
+          <t>22-Mar-2025</t>
         </is>
       </c>
       <c r="G24" s="3" t="inlineStr">
         <is>
-          <t>18-Oct-2026</t>
+          <t>22-Mar-2026</t>
         </is>
       </c>
       <c r="H24" s="3" t="n">
-        <v>349</v>
+        <v>138</v>
       </c>
       <c r="I24" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J24" s="3" t="inlineStr">
@@ -1607,7 +1619,7 @@
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>IS0 55001 (Other Trainings)</t>
+          <t>Procedure For Handling New or Unfamilliar Task (SOPs)</t>
         </is>
       </c>
       <c r="C25" s="3" t="inlineStr"/>
@@ -1615,28 +1627,445 @@
       <c r="E25" s="3" t="inlineStr"/>
       <c r="F25" s="3" t="inlineStr">
         <is>
+          <t>05-Apr-2025</t>
+        </is>
+      </c>
+      <c r="G25" s="3" t="inlineStr">
+        <is>
+          <t>05-Apr-2026</t>
+        </is>
+      </c>
+      <c r="H25" s="3" t="n">
+        <v>152</v>
+      </c>
+      <c r="I25" s="3" t="inlineStr">
+        <is>
+          <t>03-Nov-2025</t>
+        </is>
+      </c>
+      <c r="J25" s="3" t="inlineStr">
+        <is>
+          <t>VALID</t>
+        </is>
+      </c>
+      <c r="K25" s="3" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>Replacement Procedure Of ASI Gateway (SOPs)</t>
+        </is>
+      </c>
+      <c r="C26" s="3" t="inlineStr">
+        <is>
+          <t>CARGO</t>
+        </is>
+      </c>
+      <c r="D26" s="3" t="inlineStr">
+        <is>
+          <t>LSME-CRG-SOP-041</t>
+        </is>
+      </c>
+      <c r="E26" s="3" t="inlineStr">
+        <is>
+          <t>SOP</t>
+        </is>
+      </c>
+      <c r="F26" s="3" t="inlineStr">
+        <is>
+          <t>05-Apr-2025</t>
+        </is>
+      </c>
+      <c r="G26" s="3" t="inlineStr">
+        <is>
+          <t>05-Apr-2026</t>
+        </is>
+      </c>
+      <c r="H26" s="3" t="n">
+        <v>152</v>
+      </c>
+      <c r="I26" s="3" t="inlineStr">
+        <is>
+          <t>03-Nov-2025</t>
+        </is>
+      </c>
+      <c r="J26" s="3" t="inlineStr">
+        <is>
+          <t>VALID</t>
+        </is>
+      </c>
+      <c r="K26" s="3" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>Stacker Crane Aisle Annual Maintenance And Megger Test Procedure (SOPs)</t>
+        </is>
+      </c>
+      <c r="C27" s="3" t="inlineStr">
+        <is>
+          <t>CARGO</t>
+        </is>
+      </c>
+      <c r="D27" s="3" t="inlineStr">
+        <is>
+          <t>LSME-CRG-SOP-003</t>
+        </is>
+      </c>
+      <c r="E27" s="3" t="inlineStr">
+        <is>
+          <t>SOP</t>
+        </is>
+      </c>
+      <c r="F27" s="3" t="inlineStr">
+        <is>
+          <t>26-Jul-2025</t>
+        </is>
+      </c>
+      <c r="G27" s="3" t="inlineStr">
+        <is>
+          <t>26-Jul-2026</t>
+        </is>
+      </c>
+      <c r="H27" s="3" t="n">
+        <v>264</v>
+      </c>
+      <c r="I27" s="3" t="inlineStr">
+        <is>
+          <t>03-Nov-2025</t>
+        </is>
+      </c>
+      <c r="J27" s="3" t="inlineStr">
+        <is>
+          <t>VALID</t>
+        </is>
+      </c>
+      <c r="K27" s="3" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="3" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>Replacement of Stacker Crane Driven Wheel (SOPs)</t>
+        </is>
+      </c>
+      <c r="C28" s="3" t="inlineStr">
+        <is>
+          <t>CARGO</t>
+        </is>
+      </c>
+      <c r="D28" s="3" t="inlineStr">
+        <is>
+          <t>LSME-CRG-SOP-009</t>
+        </is>
+      </c>
+      <c r="E28" s="3" t="inlineStr">
+        <is>
+          <t>SOP</t>
+        </is>
+      </c>
+      <c r="F28" s="3" t="inlineStr">
+        <is>
+          <t>26-Jul-2025</t>
+        </is>
+      </c>
+      <c r="G28" s="3" t="inlineStr">
+        <is>
+          <t>26-Jul-2026</t>
+        </is>
+      </c>
+      <c r="H28" s="3" t="n">
+        <v>264</v>
+      </c>
+      <c r="I28" s="3" t="inlineStr">
+        <is>
+          <t>03-Nov-2025</t>
+        </is>
+      </c>
+      <c r="J28" s="3" t="inlineStr">
+        <is>
+          <t>VALID</t>
+        </is>
+      </c>
+      <c r="K28" s="3" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="3" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>Replacement of Stacker Crane Fork Flyer Chain (SOPs)</t>
+        </is>
+      </c>
+      <c r="C29" s="3" t="inlineStr">
+        <is>
+          <t>CARGO</t>
+        </is>
+      </c>
+      <c r="D29" s="3" t="inlineStr">
+        <is>
+          <t>LSME-CRG-SOP-010</t>
+        </is>
+      </c>
+      <c r="E29" s="3" t="inlineStr">
+        <is>
+          <t>SOP</t>
+        </is>
+      </c>
+      <c r="F29" s="3" t="inlineStr">
+        <is>
+          <t>26-Jul-2025</t>
+        </is>
+      </c>
+      <c r="G29" s="3" t="inlineStr">
+        <is>
+          <t>26-Jul-2026</t>
+        </is>
+      </c>
+      <c r="H29" s="3" t="n">
+        <v>264</v>
+      </c>
+      <c r="I29" s="3" t="inlineStr">
+        <is>
+          <t>03-Nov-2025</t>
+        </is>
+      </c>
+      <c r="J29" s="3" t="inlineStr">
+        <is>
+          <t>VALID</t>
+        </is>
+      </c>
+      <c r="K29" s="3" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="3" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>Replacement of Stacker Crane Wire Rope (SOPs)</t>
+        </is>
+      </c>
+      <c r="C30" s="3" t="inlineStr">
+        <is>
+          <t>CARGO</t>
+        </is>
+      </c>
+      <c r="D30" s="3" t="inlineStr">
+        <is>
+          <t>LSME-CRG-SOP-001</t>
+        </is>
+      </c>
+      <c r="E30" s="3" t="inlineStr">
+        <is>
+          <t>SOP</t>
+        </is>
+      </c>
+      <c r="F30" s="3" t="inlineStr">
+        <is>
+          <t>26-Jul-2025</t>
+        </is>
+      </c>
+      <c r="G30" s="3" t="inlineStr">
+        <is>
+          <t>26-Jul-2026</t>
+        </is>
+      </c>
+      <c r="H30" s="3" t="n">
+        <v>264</v>
+      </c>
+      <c r="I30" s="3" t="inlineStr">
+        <is>
+          <t>03-Nov-2025</t>
+        </is>
+      </c>
+      <c r="J30" s="3" t="inlineStr">
+        <is>
+          <t>VALID</t>
+        </is>
+      </c>
+      <c r="K30" s="3" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="3" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>SOP for  Powered Roller Deck And ULD Aisle (SOPs)</t>
+        </is>
+      </c>
+      <c r="C31" s="3" t="inlineStr"/>
+      <c r="D31" s="3" t="inlineStr"/>
+      <c r="E31" s="3" t="inlineStr"/>
+      <c r="F31" s="3" t="inlineStr">
+        <is>
+          <t>18-Oct-2025</t>
+        </is>
+      </c>
+      <c r="G31" s="3" t="inlineStr">
+        <is>
+          <t>18-Oct-2026</t>
+        </is>
+      </c>
+      <c r="H31" s="3" t="n">
+        <v>348</v>
+      </c>
+      <c r="I31" s="3" t="inlineStr">
+        <is>
+          <t>03-Nov-2025</t>
+        </is>
+      </c>
+      <c r="J31" s="3" t="inlineStr">
+        <is>
+          <t>VALID</t>
+        </is>
+      </c>
+      <c r="K31" s="3" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Replacing Bearings Of ULD Hoist Counterweight Pulley (SOPs)</t>
+        </is>
+      </c>
+      <c r="C32" s="3" t="inlineStr">
+        <is>
+          <t>CARGO</t>
+        </is>
+      </c>
+      <c r="D32" s="3" t="inlineStr">
+        <is>
+          <t>LSME-CRG-SOP-011</t>
+        </is>
+      </c>
+      <c r="E32" s="3" t="inlineStr">
+        <is>
+          <t>SOP</t>
+        </is>
+      </c>
+      <c r="F32" s="3" t="inlineStr">
+        <is>
+          <t>16-Aug-2025</t>
+        </is>
+      </c>
+      <c r="G32" s="3" t="inlineStr">
+        <is>
+          <t>16-Aug-2026</t>
+        </is>
+      </c>
+      <c r="H32" s="3" t="n">
+        <v>285</v>
+      </c>
+      <c r="I32" s="3" t="inlineStr">
+        <is>
+          <t>03-Nov-2025</t>
+        </is>
+      </c>
+      <c r="J32" s="3" t="inlineStr">
+        <is>
+          <t>VALID</t>
+        </is>
+      </c>
+      <c r="K32" s="3" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="3" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>Overload and Load Testing Procedure In ULD Hoist (SOPs)</t>
+        </is>
+      </c>
+      <c r="C33" s="3" t="inlineStr">
+        <is>
+          <t>CARGO</t>
+        </is>
+      </c>
+      <c r="D33" s="3" t="inlineStr">
+        <is>
+          <t>LSME-CRG-SOP-018</t>
+        </is>
+      </c>
+      <c r="E33" s="3" t="inlineStr">
+        <is>
+          <t>SOP</t>
+        </is>
+      </c>
+      <c r="F33" s="3" t="inlineStr">
+        <is>
+          <t>16-Aug-2025</t>
+        </is>
+      </c>
+      <c r="G33" s="3" t="inlineStr">
+        <is>
+          <t>16-Aug-2026</t>
+        </is>
+      </c>
+      <c r="H33" s="3" t="n">
+        <v>285</v>
+      </c>
+      <c r="I33" s="3" t="inlineStr">
+        <is>
+          <t>03-Nov-2025</t>
+        </is>
+      </c>
+      <c r="J33" s="3" t="inlineStr">
+        <is>
+          <t>VALID</t>
+        </is>
+      </c>
+      <c r="K33" s="3" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>IS0 55001 (Other Trainings)</t>
+        </is>
+      </c>
+      <c r="C34" s="3" t="inlineStr"/>
+      <c r="D34" s="3" t="inlineStr"/>
+      <c r="E34" s="3" t="inlineStr"/>
+      <c r="F34" s="3" t="inlineStr">
+        <is>
           <t>02-Jul-2025</t>
         </is>
       </c>
-      <c r="G25" s="3" t="inlineStr">
+      <c r="G34" s="3" t="inlineStr">
         <is>
           <t>02-Jul-2027</t>
         </is>
       </c>
-      <c r="H25" s="3" t="n">
-        <v>606</v>
-      </c>
-      <c r="I25" s="3" t="inlineStr">
-        <is>
-          <t>02-Nov-2025</t>
-        </is>
-      </c>
-      <c r="J25" s="3" t="inlineStr">
-        <is>
-          <t>VALID</t>
-        </is>
-      </c>
-      <c r="K25" s="3" t="inlineStr"/>
+      <c r="H34" s="3" t="n">
+        <v>605</v>
+      </c>
+      <c r="I34" s="3" t="inlineStr">
+        <is>
+          <t>03-Nov-2025</t>
+        </is>
+      </c>
+      <c r="J34" s="3" t="inlineStr">
+        <is>
+          <t>VALID</t>
+        </is>
+      </c>
+      <c r="K34" s="3" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Employee_Reports35/Jahsim Saycon Apila Q0431.xlsx
+++ b/Employee_Reports35/Jahsim Saycon Apila Q0431.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K34"/>
+  <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -581,11 +581,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -630,11 +630,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -679,11 +679,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -728,11 +728,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -777,11 +777,11 @@
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
@@ -826,11 +826,11 @@
         </is>
       </c>
       <c r="H8" s="3" t="n">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
@@ -875,11 +875,11 @@
         </is>
       </c>
       <c r="H9" s="3" t="n">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="I9" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J9" s="3" t="inlineStr">
@@ -924,11 +924,11 @@
         </is>
       </c>
       <c r="H10" s="3" t="n">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="I10" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J10" s="3" t="inlineStr">
@@ -973,11 +973,11 @@
         </is>
       </c>
       <c r="H11" s="3" t="n">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="I11" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J11" s="3" t="inlineStr">
@@ -1013,20 +1013,20 @@
       </c>
       <c r="F12" s="3" t="inlineStr">
         <is>
-          <t>15-Aug-2025</t>
+          <t>20-Oct-2025</t>
         </is>
       </c>
       <c r="G12" s="3" t="inlineStr">
         <is>
-          <t>15-Aug-2027</t>
+          <t>20-Oct-2027</t>
         </is>
       </c>
       <c r="H12" s="3" t="n">
-        <v>649</v>
+        <v>714</v>
       </c>
       <c r="I12" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J12" s="3" t="inlineStr">
@@ -1062,20 +1062,20 @@
       </c>
       <c r="F13" s="3" t="inlineStr">
         <is>
-          <t>28-Oct-2024</t>
+          <t>20-Oct-2025</t>
         </is>
       </c>
       <c r="G13" s="3" t="inlineStr">
         <is>
-          <t>28-Oct-2026</t>
+          <t>20-Oct-2027</t>
         </is>
       </c>
       <c r="H13" s="3" t="n">
-        <v>358</v>
+        <v>714</v>
       </c>
       <c r="I13" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J13" s="3" t="inlineStr">
@@ -1120,11 +1120,11 @@
         </is>
       </c>
       <c r="H14" s="3" t="n">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="I14" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J14" s="3" t="inlineStr">
@@ -1169,11 +1169,11 @@
         </is>
       </c>
       <c r="H15" s="3" t="n">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I15" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J15" s="3" t="inlineStr">
@@ -1218,11 +1218,11 @@
         </is>
       </c>
       <c r="H16" s="3" t="n">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="I16" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J16" s="3" t="inlineStr">
@@ -1267,11 +1267,11 @@
         </is>
       </c>
       <c r="H17" s="3" t="n">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="I17" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J17" s="3" t="inlineStr">
@@ -1316,11 +1316,11 @@
         </is>
       </c>
       <c r="H18" s="3" t="n">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="I18" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J18" s="3" t="inlineStr">
@@ -1365,11 +1365,11 @@
         </is>
       </c>
       <c r="H19" s="3" t="n">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="I19" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J19" s="3" t="inlineStr">
@@ -1414,11 +1414,11 @@
         </is>
       </c>
       <c r="H20" s="3" t="n">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="I20" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J20" s="3" t="inlineStr">
@@ -1429,189 +1429,189 @@
       <c r="K20" s="3" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" s="4" t="n">
+      <c r="A21" s="3" t="n">
         <v>19</v>
       </c>
-      <c r="B21" s="4" t="inlineStr">
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>Diagnosis Of Beckoff Module And Troubleshooting Guide (Cargo Trainings)</t>
+        </is>
+      </c>
+      <c r="C21" s="3" t="inlineStr">
+        <is>
+          <t>CARGO</t>
+        </is>
+      </c>
+      <c r="D21" s="3" t="inlineStr">
+        <is>
+          <t>LSME-CRG-M-012</t>
+        </is>
+      </c>
+      <c r="E21" s="3" t="inlineStr">
+        <is>
+          <t>EQUIPMENT MANUAL</t>
+        </is>
+      </c>
+      <c r="F21" s="3" t="inlineStr">
+        <is>
+          <t>21-Oct-2025</t>
+        </is>
+      </c>
+      <c r="G21" s="3" t="inlineStr">
+        <is>
+          <t>21-Oct-2027</t>
+        </is>
+      </c>
+      <c r="H21" s="3" t="n">
+        <v>715</v>
+      </c>
+      <c r="I21" s="3" t="inlineStr">
+        <is>
+          <t>04-Nov-2025</t>
+        </is>
+      </c>
+      <c r="J21" s="3" t="inlineStr">
+        <is>
+          <t>VALID</t>
+        </is>
+      </c>
+      <c r="K21" s="3" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" s="4" t="inlineStr">
         <is>
           <t>LOTO (SOPs)</t>
         </is>
       </c>
-      <c r="C21" s="4" t="inlineStr">
+      <c r="C22" s="4" t="inlineStr">
         <is>
           <t>ELECTRICAL SAFETY</t>
         </is>
       </c>
-      <c r="D21" s="4" t="inlineStr">
+      <c r="D22" s="4" t="inlineStr">
         <is>
           <t>LSME-OHS-SOP-021</t>
         </is>
       </c>
-      <c r="E21" s="4" t="inlineStr">
+      <c r="E22" s="4" t="inlineStr">
         <is>
           <t>SOP</t>
         </is>
       </c>
-      <c r="F21" s="4" t="inlineStr">
+      <c r="F22" s="4" t="inlineStr">
         <is>
           <t>12-Dec-2024</t>
         </is>
       </c>
-      <c r="G21" s="4" t="inlineStr">
+      <c r="G22" s="4" t="inlineStr">
         <is>
           <t>12-Dec-2025</t>
         </is>
       </c>
-      <c r="H21" s="4" t="n">
-        <v>38</v>
-      </c>
-      <c r="I21" s="4" t="inlineStr">
-        <is>
-          <t>03-Nov-2025</t>
-        </is>
-      </c>
-      <c r="J21" s="4" t="inlineStr">
+      <c r="H22" s="4" t="n">
+        <v>37</v>
+      </c>
+      <c r="I22" s="4" t="inlineStr">
+        <is>
+          <t>04-Nov-2025</t>
+        </is>
+      </c>
+      <c r="J22" s="4" t="inlineStr">
         <is>
           <t>EXPIRING SOON</t>
         </is>
       </c>
-      <c r="K21" s="4" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="3" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" s="3" t="inlineStr">
+      <c r="K22" s="4" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" s="3" t="inlineStr">
         <is>
           <t>Equipment Operation Procedure
 (SOP-031) (SOPs)</t>
         </is>
       </c>
-      <c r="C22" s="3" t="inlineStr">
-        <is>
-          <t>CARGO</t>
-        </is>
-      </c>
-      <c r="D22" s="3" t="inlineStr">
+      <c r="C23" s="3" t="inlineStr">
+        <is>
+          <t>CARGO</t>
+        </is>
+      </c>
+      <c r="D23" s="3" t="inlineStr">
         <is>
           <t>LSME-CRG-SOP-031</t>
         </is>
       </c>
-      <c r="E22" s="3" t="inlineStr">
+      <c r="E23" s="3" t="inlineStr">
         <is>
           <t>SOP</t>
         </is>
       </c>
-      <c r="F22" s="3" t="inlineStr">
+      <c r="F23" s="3" t="inlineStr">
         <is>
           <t>23-Jan-2025</t>
         </is>
       </c>
-      <c r="G22" s="3" t="inlineStr">
+      <c r="G23" s="3" t="inlineStr">
         <is>
           <t>23-Jan-2026</t>
         </is>
       </c>
-      <c r="H22" s="3" t="n">
-        <v>80</v>
-      </c>
-      <c r="I22" s="3" t="inlineStr">
-        <is>
-          <t>03-Nov-2025</t>
-        </is>
-      </c>
-      <c r="J22" s="3" t="inlineStr">
-        <is>
-          <t>VALID</t>
-        </is>
-      </c>
-      <c r="K22" s="3" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="5" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" s="5" t="inlineStr">
+      <c r="H23" s="3" t="n">
+        <v>79</v>
+      </c>
+      <c r="I23" s="3" t="inlineStr">
+        <is>
+          <t>04-Nov-2025</t>
+        </is>
+      </c>
+      <c r="J23" s="3" t="inlineStr">
+        <is>
+          <t>VALID</t>
+        </is>
+      </c>
+      <c r="K23" s="3" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="5" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" s="5" t="inlineStr">
         <is>
           <t>Endangered by Electricity A safety Training (SOPs)</t>
         </is>
       </c>
-      <c r="C23" s="5" t="inlineStr"/>
-      <c r="D23" s="5" t="inlineStr"/>
-      <c r="E23" s="5" t="inlineStr"/>
-      <c r="F23" s="5" t="inlineStr">
+      <c r="C24" s="5" t="inlineStr"/>
+      <c r="D24" s="5" t="inlineStr"/>
+      <c r="E24" s="5" t="inlineStr"/>
+      <c r="F24" s="5" t="inlineStr">
         <is>
           <t>24-Jul-2024</t>
         </is>
       </c>
-      <c r="G23" s="5" t="inlineStr">
+      <c r="G24" s="5" t="inlineStr">
         <is>
           <t>24-Jul-2025</t>
         </is>
       </c>
-      <c r="H23" s="5" t="n">
-        <v>-103</v>
-      </c>
-      <c r="I23" s="5" t="inlineStr">
-        <is>
-          <t>03-Nov-2025</t>
-        </is>
-      </c>
-      <c r="J23" s="5" t="inlineStr">
+      <c r="H24" s="5" t="n">
+        <v>-104</v>
+      </c>
+      <c r="I24" s="5" t="inlineStr">
+        <is>
+          <t>04-Nov-2025</t>
+        </is>
+      </c>
+      <c r="J24" s="5" t="inlineStr">
         <is>
           <t>NOT VALID</t>
         </is>
       </c>
-      <c r="K23" s="5" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="3" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Incident Escalation Process(LSME-IMS-SOP-021 ) (SOPs)</t>
-        </is>
-      </c>
-      <c r="C24" s="3" t="inlineStr">
-        <is>
-          <t>IMS</t>
-        </is>
-      </c>
-      <c r="D24" s="3" t="inlineStr">
-        <is>
-          <t>LSME-IMS-SOP-021</t>
-        </is>
-      </c>
-      <c r="E24" s="3" t="inlineStr">
-        <is>
-          <t>SOP</t>
-        </is>
-      </c>
-      <c r="F24" s="3" t="inlineStr">
-        <is>
-          <t>22-Mar-2025</t>
-        </is>
-      </c>
-      <c r="G24" s="3" t="inlineStr">
-        <is>
-          <t>22-Mar-2026</t>
-        </is>
-      </c>
-      <c r="H24" s="3" t="n">
-        <v>138</v>
-      </c>
-      <c r="I24" s="3" t="inlineStr">
-        <is>
-          <t>03-Nov-2025</t>
-        </is>
-      </c>
-      <c r="J24" s="3" t="inlineStr">
-        <is>
-          <t>VALID</t>
-        </is>
-      </c>
-      <c r="K24" s="3" t="inlineStr"/>
+      <c r="K24" s="5" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="3" t="n">
@@ -1619,28 +1619,40 @@
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>Procedure For Handling New or Unfamilliar Task (SOPs)</t>
-        </is>
-      </c>
-      <c r="C25" s="3" t="inlineStr"/>
-      <c r="D25" s="3" t="inlineStr"/>
-      <c r="E25" s="3" t="inlineStr"/>
+          <t>Incident Escalation Process(LSME-IMS-SOP-021 ) (SOPs)</t>
+        </is>
+      </c>
+      <c r="C25" s="3" t="inlineStr">
+        <is>
+          <t>IMS</t>
+        </is>
+      </c>
+      <c r="D25" s="3" t="inlineStr">
+        <is>
+          <t>LSME-IMS-SOP-021</t>
+        </is>
+      </c>
+      <c r="E25" s="3" t="inlineStr">
+        <is>
+          <t>SOP</t>
+        </is>
+      </c>
       <c r="F25" s="3" t="inlineStr">
         <is>
-          <t>05-Apr-2025</t>
+          <t>22-Mar-2025</t>
         </is>
       </c>
       <c r="G25" s="3" t="inlineStr">
         <is>
-          <t>05-Apr-2026</t>
+          <t>22-Mar-2026</t>
         </is>
       </c>
       <c r="H25" s="3" t="n">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="I25" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J25" s="3" t="inlineStr">
@@ -1656,24 +1668,12 @@
       </c>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Replacement Procedure Of ASI Gateway (SOPs)</t>
-        </is>
-      </c>
-      <c r="C26" s="3" t="inlineStr">
-        <is>
-          <t>CARGO</t>
-        </is>
-      </c>
-      <c r="D26" s="3" t="inlineStr">
-        <is>
-          <t>LSME-CRG-SOP-041</t>
-        </is>
-      </c>
-      <c r="E26" s="3" t="inlineStr">
-        <is>
-          <t>SOP</t>
-        </is>
-      </c>
+          <t>Procedure For Handling New or Unfamilliar Task (SOPs)</t>
+        </is>
+      </c>
+      <c r="C26" s="3" t="inlineStr"/>
+      <c r="D26" s="3" t="inlineStr"/>
+      <c r="E26" s="3" t="inlineStr"/>
       <c r="F26" s="3" t="inlineStr">
         <is>
           <t>05-Apr-2025</t>
@@ -1685,11 +1685,11 @@
         </is>
       </c>
       <c r="H26" s="3" t="n">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I26" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J26" s="3" t="inlineStr">
@@ -1705,7 +1705,7 @@
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>Stacker Crane Aisle Annual Maintenance And Megger Test Procedure (SOPs)</t>
+          <t>Replacement Procedure Of ASI Gateway (SOPs)</t>
         </is>
       </c>
       <c r="C27" s="3" t="inlineStr">
@@ -1715,7 +1715,7 @@
       </c>
       <c r="D27" s="3" t="inlineStr">
         <is>
-          <t>LSME-CRG-SOP-003</t>
+          <t>LSME-CRG-SOP-041</t>
         </is>
       </c>
       <c r="E27" s="3" t="inlineStr">
@@ -1725,20 +1725,20 @@
       </c>
       <c r="F27" s="3" t="inlineStr">
         <is>
-          <t>26-Jul-2025</t>
+          <t>05-Apr-2025</t>
         </is>
       </c>
       <c r="G27" s="3" t="inlineStr">
         <is>
-          <t>26-Jul-2026</t>
+          <t>05-Apr-2026</t>
         </is>
       </c>
       <c r="H27" s="3" t="n">
-        <v>264</v>
+        <v>151</v>
       </c>
       <c r="I27" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J27" s="3" t="inlineStr">
@@ -1754,7 +1754,7 @@
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Replacement of Stacker Crane Driven Wheel (SOPs)</t>
+          <t>Stacker Crane Aisle Annual Maintenance And Megger Test Procedure (SOPs)</t>
         </is>
       </c>
       <c r="C28" s="3" t="inlineStr">
@@ -1764,7 +1764,7 @@
       </c>
       <c r="D28" s="3" t="inlineStr">
         <is>
-          <t>LSME-CRG-SOP-009</t>
+          <t>LSME-CRG-SOP-003</t>
         </is>
       </c>
       <c r="E28" s="3" t="inlineStr">
@@ -1783,11 +1783,11 @@
         </is>
       </c>
       <c r="H28" s="3" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I28" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J28" s="3" t="inlineStr">
@@ -1803,7 +1803,7 @@
       </c>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>Replacement of Stacker Crane Fork Flyer Chain (SOPs)</t>
+          <t>Replacement of Stacker Crane Driven Wheel (SOPs)</t>
         </is>
       </c>
       <c r="C29" s="3" t="inlineStr">
@@ -1813,7 +1813,7 @@
       </c>
       <c r="D29" s="3" t="inlineStr">
         <is>
-          <t>LSME-CRG-SOP-010</t>
+          <t>LSME-CRG-SOP-009</t>
         </is>
       </c>
       <c r="E29" s="3" t="inlineStr">
@@ -1832,11 +1832,11 @@
         </is>
       </c>
       <c r="H29" s="3" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I29" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J29" s="3" t="inlineStr">
@@ -1852,7 +1852,7 @@
       </c>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>Replacement of Stacker Crane Wire Rope (SOPs)</t>
+          <t>Replacement of Stacker Crane Fork Flyer Chain (SOPs)</t>
         </is>
       </c>
       <c r="C30" s="3" t="inlineStr">
@@ -1862,7 +1862,7 @@
       </c>
       <c r="D30" s="3" t="inlineStr">
         <is>
-          <t>LSME-CRG-SOP-001</t>
+          <t>LSME-CRG-SOP-010</t>
         </is>
       </c>
       <c r="E30" s="3" t="inlineStr">
@@ -1881,11 +1881,11 @@
         </is>
       </c>
       <c r="H30" s="3" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I30" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J30" s="3" t="inlineStr">
@@ -1901,28 +1901,40 @@
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>SOP for  Powered Roller Deck And ULD Aisle (SOPs)</t>
-        </is>
-      </c>
-      <c r="C31" s="3" t="inlineStr"/>
-      <c r="D31" s="3" t="inlineStr"/>
-      <c r="E31" s="3" t="inlineStr"/>
+          <t>Replacement of Stacker Crane Wire Rope (SOPs)</t>
+        </is>
+      </c>
+      <c r="C31" s="3" t="inlineStr">
+        <is>
+          <t>CARGO</t>
+        </is>
+      </c>
+      <c r="D31" s="3" t="inlineStr">
+        <is>
+          <t>LSME-CRG-SOP-001</t>
+        </is>
+      </c>
+      <c r="E31" s="3" t="inlineStr">
+        <is>
+          <t>SOP</t>
+        </is>
+      </c>
       <c r="F31" s="3" t="inlineStr">
         <is>
-          <t>18-Oct-2025</t>
+          <t>26-Jul-2025</t>
         </is>
       </c>
       <c r="G31" s="3" t="inlineStr">
         <is>
-          <t>18-Oct-2026</t>
+          <t>26-Jul-2026</t>
         </is>
       </c>
       <c r="H31" s="3" t="n">
-        <v>348</v>
+        <v>263</v>
       </c>
       <c r="I31" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J31" s="3" t="inlineStr">
@@ -1938,40 +1950,28 @@
       </c>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>Replacing Bearings Of ULD Hoist Counterweight Pulley (SOPs)</t>
-        </is>
-      </c>
-      <c r="C32" s="3" t="inlineStr">
-        <is>
-          <t>CARGO</t>
-        </is>
-      </c>
-      <c r="D32" s="3" t="inlineStr">
-        <is>
-          <t>LSME-CRG-SOP-011</t>
-        </is>
-      </c>
-      <c r="E32" s="3" t="inlineStr">
-        <is>
-          <t>SOP</t>
-        </is>
-      </c>
+          <t>SOP for  Powered Roller Deck And ULD Aisle (SOPs)</t>
+        </is>
+      </c>
+      <c r="C32" s="3" t="inlineStr"/>
+      <c r="D32" s="3" t="inlineStr"/>
+      <c r="E32" s="3" t="inlineStr"/>
       <c r="F32" s="3" t="inlineStr">
         <is>
-          <t>16-Aug-2025</t>
+          <t>18-Oct-2025</t>
         </is>
       </c>
       <c r="G32" s="3" t="inlineStr">
         <is>
-          <t>16-Aug-2026</t>
+          <t>18-Oct-2026</t>
         </is>
       </c>
       <c r="H32" s="3" t="n">
-        <v>285</v>
+        <v>347</v>
       </c>
       <c r="I32" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J32" s="3" t="inlineStr">
@@ -1987,7 +1987,7 @@
       </c>
       <c r="B33" s="3" t="inlineStr">
         <is>
-          <t>Overload and Load Testing Procedure In ULD Hoist (SOPs)</t>
+          <t>Replacing Bearings Of ULD Hoist Counterweight Pulley (SOPs)</t>
         </is>
       </c>
       <c r="C33" s="3" t="inlineStr">
@@ -1997,7 +1997,7 @@
       </c>
       <c r="D33" s="3" t="inlineStr">
         <is>
-          <t>LSME-CRG-SOP-018</t>
+          <t>LSME-CRG-SOP-011</t>
         </is>
       </c>
       <c r="E33" s="3" t="inlineStr">
@@ -2016,11 +2016,11 @@
         </is>
       </c>
       <c r="H33" s="3" t="n">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I33" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J33" s="3" t="inlineStr">
@@ -2036,36 +2036,85 @@
       </c>
       <c r="B34" s="3" t="inlineStr">
         <is>
+          <t>Overload and Load Testing Procedure In ULD Hoist (SOPs)</t>
+        </is>
+      </c>
+      <c r="C34" s="3" t="inlineStr">
+        <is>
+          <t>CARGO</t>
+        </is>
+      </c>
+      <c r="D34" s="3" t="inlineStr">
+        <is>
+          <t>LSME-CRG-SOP-018</t>
+        </is>
+      </c>
+      <c r="E34" s="3" t="inlineStr">
+        <is>
+          <t>SOP</t>
+        </is>
+      </c>
+      <c r="F34" s="3" t="inlineStr">
+        <is>
+          <t>16-Aug-2025</t>
+        </is>
+      </c>
+      <c r="G34" s="3" t="inlineStr">
+        <is>
+          <t>16-Aug-2026</t>
+        </is>
+      </c>
+      <c r="H34" s="3" t="n">
+        <v>284</v>
+      </c>
+      <c r="I34" s="3" t="inlineStr">
+        <is>
+          <t>04-Nov-2025</t>
+        </is>
+      </c>
+      <c r="J34" s="3" t="inlineStr">
+        <is>
+          <t>VALID</t>
+        </is>
+      </c>
+      <c r="K34" s="3" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="3" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
           <t>IS0 55001 (Other Trainings)</t>
         </is>
       </c>
-      <c r="C34" s="3" t="inlineStr"/>
-      <c r="D34" s="3" t="inlineStr"/>
-      <c r="E34" s="3" t="inlineStr"/>
-      <c r="F34" s="3" t="inlineStr">
+      <c r="C35" s="3" t="inlineStr"/>
+      <c r="D35" s="3" t="inlineStr"/>
+      <c r="E35" s="3" t="inlineStr"/>
+      <c r="F35" s="3" t="inlineStr">
         <is>
           <t>02-Jul-2025</t>
         </is>
       </c>
-      <c r="G34" s="3" t="inlineStr">
+      <c r="G35" s="3" t="inlineStr">
         <is>
           <t>02-Jul-2027</t>
         </is>
       </c>
-      <c r="H34" s="3" t="n">
-        <v>605</v>
-      </c>
-      <c r="I34" s="3" t="inlineStr">
-        <is>
-          <t>03-Nov-2025</t>
-        </is>
-      </c>
-      <c r="J34" s="3" t="inlineStr">
-        <is>
-          <t>VALID</t>
-        </is>
-      </c>
-      <c r="K34" s="3" t="inlineStr"/>
+      <c r="H35" s="3" t="n">
+        <v>604</v>
+      </c>
+      <c r="I35" s="3" t="inlineStr">
+        <is>
+          <t>04-Nov-2025</t>
+        </is>
+      </c>
+      <c r="J35" s="3" t="inlineStr">
+        <is>
+          <t>VALID</t>
+        </is>
+      </c>
+      <c r="K35" s="3" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="1">
